--- a/LF/ITAS/sn_lf_itas_2405_1_sit_part.xlsx
+++ b/LF/ITAS/sn_lf_itas_2405_1_sit_part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE34B0-139B-4E69-943A-E0B0B6621004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225630D1-6C03-4555-A537-018282F5B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,9 +1537,6 @@
     <t>sn_lf_p_2405</t>
   </si>
   <si>
-    <t>if(${p_IDMethod} = 'Scanner', concat(${p_Barcode_id}),concat( ${p_manual_code_id}))</t>
-  </si>
-  <si>
     <t>. = ${p_manual_code_id}</t>
   </si>
   <si>
@@ -1556,6 +1553,9 @@
   </si>
   <si>
     <t>repeat_count</t>
+  </si>
+  <si>
+    <t>if(${p_IDMethod} = 'Scanner', concat(${p_Barcode_id}),concat(${c_recorder}, '_', ${c_cluster_id}, '_', ${p_manual_code_id}))</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2227,10 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2295,7 +2295,7 @@
         <v>490</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="12" customFormat="1" ht="63">
@@ -2762,7 +2762,7 @@
         <v>488</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="26"/>
@@ -2792,10 +2792,10 @@
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>448</v>
@@ -2816,7 +2816,7 @@
         <v>449</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="26"/>
@@ -2824,13 +2824,13 @@
         <v>493</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>438</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>18</v>
